--- a/databases/APIFeedback.xlsx
+++ b/databases/APIFeedback.xlsx
@@ -19,41 +19,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Tamim:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Bei Bewertung unterscheiden zwischen Löser und Stiller (pauschal nur am Abend) -</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
@@ -149,7 +114,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -183,13 +148,6 @@
       <sz val="11"/>
       <color rgb="FFBFBFBF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -257,11 +215,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,16 +232,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -367,7 +321,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="116" zoomScaleNormal="116" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -378,156 +332,156 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -540,6 +494,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/databases/APIFeedback.xlsx
+++ b/databases/APIFeedback.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">PrevNeg1</t>
   </si>
   <si>
-    <t xml:space="preserve">PrevPos2 </t>
+    <t xml:space="preserve">PrevPos2</t>
   </si>
   <si>
     <t xml:space="preserve">Unused</t>
@@ -215,7 +215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -321,7 +321,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="116" zoomScaleNormal="116" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
